--- a/data/IDH_muted_test_class.xlsx
+++ b/data/IDH_muted_test_class.xlsx
@@ -272,10 +272,10 @@
     <t>UCSF-PDGM-0314</t>
   </si>
   <si>
-    <t>UCSF-PDGM-0124</t>
-  </si>
-  <si>
-    <t>UCSF-PDGM-0239</t>
+    <t>UCSF-PDGM-0298</t>
+  </si>
+  <si>
+    <t>UCSF-PDGM-0307</t>
   </si>
   <si>
     <t>UCSF-PDGM-0297</t>
@@ -422,10 +422,10 @@
     <t>UCSF-PDGM-0210</t>
   </si>
   <si>
-    <t>UCSF-PDGM-0529</t>
-  </si>
-  <si>
-    <t>UCSF-PDGM-0244</t>
+    <t>UCSF-PDGM-0540</t>
+  </si>
+  <si>
+    <t>UCSF-PDGM-0281</t>
   </si>
   <si>
     <t>UCSF-PDGM-0074</t>
@@ -440,7 +440,7 @@
     <t>UCSF-PDGM-0038</t>
   </si>
   <si>
-    <t>UCSF-PDGM-0517</t>
+    <t>UCSF-PDGM-0269</t>
   </si>
   <si>
     <t>UCSF-PDGM-0025</t>
@@ -977,19 +977,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,7 +998,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,11 +1122,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1475,8 +1476,8 @@
   <sheetPr/>
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2122,18 +2123,18 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2522,18 +2523,18 @@
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="A132" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2570,10 +2571,10 @@
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="2">
         <v>1</v>
       </c>
     </row>
